--- a/HHS Operations/ORIGINALS/Template_ProjectTracker.xlsx
+++ b/HHS Operations/ORIGINALS/Template_ProjectTracker.xlsx
@@ -401,11 +401,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.00%"/>
+    <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.00%"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -567,7 +568,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -583,11 +584,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -670,8 +671,8 @@
   </sheetPr>
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H86" activeCellId="0" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -679,7 +680,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="58.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="9.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.97"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="999" min="6" style="1" width="8.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1001" min="1000" style="1" width="11.57"/>
   </cols>
